--- a/Assets/06.Table/SummerCollection.xlsx
+++ b/Assets/06.Table/SummerCollection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A834D5E-5C93-4EF9-A611-151F5B9B22B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133BEC5-99FF-4724-94E0-CDAE543F57A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6210" yWindow="8265" windowWidth="28830" windowHeight="11460" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SummerCollection" sheetId="1" r:id="rId1"/>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -959,6 +959,40 @@
         <v>7000000</v>
       </c>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1233</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1234</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>7000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SummerCollection.xlsx
+++ b/Assets/06.Table/SummerCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133BEC5-99FF-4724-94E0-CDAE543F57A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639353B6-5DB5-41F7-81E6-49A40645A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="8265" windowWidth="28830" windowHeight="11460" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SummerCollection" sheetId="1" r:id="rId1"/>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -993,6 +993,40 @@
         <v>7000000</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1238</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1239</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>7000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SummerCollection.xlsx
+++ b/Assets/06.Table/SummerCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639353B6-5DB5-41F7-81E6-49A40645A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E81529F-261F-4CD0-9ACB-6422A22A047C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SummerCollection" sheetId="1" r:id="rId1"/>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1027,6 +1027,23 @@
         <v>7000000</v>
       </c>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1251</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>7000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
